--- a/medicine/Enfance/Alice_Hoffman/Alice_Hoffman.xlsx
+++ b/medicine/Enfance/Alice_Hoffman/Alice_Hoffman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Hoffman, née le 16 mars 1952 à New York, aux États-Unis, est une romancière américaine. Elle est notamment connue pour le roman Practical Magic adaptée au cinéma sous le titre Les Ensorceleuses avec Sandra Bullock et Nicole Kidman dans le rôle des sœurs opposées.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Hoffman naît à New York et grandit à Long Island. Elle obtient un baccalauréat universitaire ès lettres de l’université Adelphi, puis une maîtrise universitaire ès lettres en écriture créative à l’université Stanford.
 Elle publie un premier roman, La Nuit du loup (Property Of, 1977) à la fin de sa maîtrise et s’oriente vers une carrière de romancière à la suite du succès rencontré par ce titre. Écrivain prolifique, elle signe de nombreux romans, mêlant le réalisme magique, la fiction historique et le récit policier aux styles littéraires de l’imaginaire.
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Property Of (1977) Publié en français sous le titre La Nuit du loup, traduction de Martine Laroche, Le Paradou, Actes Sud, 1988, réédition Paris, J’ai lu no 2803, 1990
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Property Of (1977) Publié en français sous le titre La Nuit du loup, traduction de Martine Laroche, Le Paradou, Actes Sud, 1988, réédition Paris, J’ai lu no 2803, 1990
 The Drowning Season (1979) Publié en français sous le titre La Saison du noyé, traduction de Marie-Odile Fortier-Masek, Paris, Flammarion, 2001
 Angel Landing (1980)
 White Horses (1982) Publié en français sous le titre Les Cavaliers de la nuit, traduction d’Yvan Comeau, Paris, Flammarion, 1994, réédition Paris, J’ai lu no 4116, 1996
@@ -580,85 +599,228 @@
 The World That We Knew (2019)
 Magic Lessons (2020)
 The Book of Magic (2021)
-The Invisible Hour (2023)
-Recueil de nouvelles
-Blackbird House (2004)
-Romans pour la jeunesse
-Aquamarine (2001)
+The Invisible Hour (2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_Hoffman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Hoffman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blackbird House (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_Hoffman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Hoffman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aquamarine (2001)
 Indigo (2002)
 Green Angel (2003)
 The Foretelling (2005) Publié en français sous le titre La Prédiction, traduction de Catherine Gibert, Paris, Gallimard, coll. Scripto, 2006
 Incantation (2006) Publié en français sous le titre Incantation, traduction de Catherine Gibert, Paris, Gallimard, coll. Scripto, 2008
-Green Witch (2010)
-Livres illustrés
-Fireflies: A Winter's Tale (illustrations de Wayne McLoughlin) (1999)
+Green Witch (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alice_Hoffman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Hoffman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fireflies: A Winter's Tale (illustrations de Wayne McLoughlin) (1999)
 Horsefly (illustrations de Steve Johnson et Lou Fancher) (2000)
 Moondog (avec Wolfe Martin; illustrations de Yumi Heo) (2004)
 Mother’s Day (illustrations de Maggie Stern) (2004)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Alice_Hoffman</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_Hoffman</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme auteur adaptée
-1998 : Les Ensorceleuses (Practical Magic), film américain réalisé par Griffin Dunne, d’après le roman éponyme, avec Sandra Bullock, Nicole Kidman, Stockard Channing, Dianne Wiest, Evan Rachel Wood et Goran Višnjić.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comme auteur adaptée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1998 : Les Ensorceleuses (Practical Magic), film américain réalisé par Griffin Dunne, d’après le roman éponyme, avec Sandra Bullock, Nicole Kidman, Stockard Channing, Dianne Wiest, Evan Rachel Wood et Goran Višnjić.
 2004 : Sudbury, épisode pilote américain réalisé par Bryan Spicer, d’après le film Les Ensorceleuses de Griffin Dunne, avec Kim Delaney, Jeri Ryan, Kat Dennings, Gage Golightly et Nolan Gerard Funk.
 2005 : The River King, film américain réalisé par Nick Willing, d’après le roman éponyme, avec Edward Burns, Rachelle Lefèvre et Jennifer Ehle.
-2006 : Aquamarine, film américano-australien réalisé par Elizabeth Allen, d’après le roman éponyme, avec Sara Paxton, Emma Roberts, Arielle Kebbel et JoJo.
-Comme scénariste
-1983 : Independence Day, film américain réalisé par Robert Mandel, d’après un scénario original d’Alice Hoffman, avec Kathleen Quinlan, David Keith, Cliff De Young, Frances Sternhagen et Dianne Wiest.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+2006 : Aquamarine, film américano-australien réalisé par Elizabeth Allen, d’après le roman éponyme, avec Sara Paxton, Emma Roberts, Arielle Kebbel et JoJo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Alice_Hoffman</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_Hoffman</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1983 : Independence Day, film américain réalisé par Robert Mandel, d’après un scénario original d’Alice Hoffman, avec Kathleen Quinlan, David Keith, Cliff De Young, Frances Sternhagen et Dianne Wiest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alice_Hoffman</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Hoffman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prix Hammett 1992 du meilleur premier roman pour Turtle Moon.
 Oprah's Book Club : livre du mois de mars 1998 pour Here on Earth.
